--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC11-ARIX FIBULA #2.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P13NAC11-ARIX FIBULA #2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1F6314-6C69-4CE7-BEA6-B94DBD9280C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{AD5D14BC-E9E1-4D82-B171-843D56C799B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13020" yWindow="45" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FIBULA 2" sheetId="4" r:id="rId1"/>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -933,13 +922,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="42" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_ &quot;$&quot;* #,##0_ ;_ &quot;$&quot;* \-#,##0_ ;_ &quot;$&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ &quot;$&quot;* #,##0.00_ ;_ &quot;$&quot;* \-#,##0.00_ ;_ &quot;$&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-[$$-240A]\ * #,##0.00_-;\-[$$-240A]\ * #,##0.00_-;_-[$$-240A]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="169" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -1370,21 +1359,21 @@
   </borders>
   <cellStyleXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
@@ -1433,8 +1422,8 @@
     <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1450,10 +1439,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1505,7 +1494,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="7" borderId="1" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,7 +1506,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="167" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
@@ -1575,6 +1564,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1610,9 +1602,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="18">
@@ -1698,9 +1687,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1738,7 +1727,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1844,7 +1833,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1986,7 +1975,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1996,8 +1985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J167"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="58" zoomScaleNormal="58" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A42" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.5703125" defaultRowHeight="25.15" customHeight="1"/>
@@ -2024,18 +2013,18 @@
     <row r="2" spans="1:5" ht="25.15" customHeight="1" thickBot="1">
       <c r="A2" s="35"/>
       <c r="B2" s="36"/>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="76" t="s">
         <v>145</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="E2" s="78"/>
+      <c r="E2" s="79"/>
     </row>
     <row r="3" spans="1:5" ht="25.15" customHeight="1" thickBot="1">
       <c r="A3" s="54"/>
       <c r="B3" s="55"/>
-      <c r="C3" s="76"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="56" t="s">
         <v>243</v>
       </c>
@@ -2044,22 +2033,22 @@
     <row r="4" spans="1:5" ht="25.15" customHeight="1" thickBot="1">
       <c r="A4" s="54"/>
       <c r="B4" s="55"/>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="80" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="82" t="s">
         <v>244</v>
       </c>
-      <c r="E4" s="82"/>
+      <c r="E4" s="83"/>
     </row>
     <row r="5" spans="1:5" ht="25.15" customHeight="1" thickBot="1">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="80"/>
-      <c r="D5" s="83" t="s">
+      <c r="C5" s="81"/>
+      <c r="D5" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="E5" s="84"/>
+      <c r="E5" s="85"/>
     </row>
     <row r="6" spans="1:5" ht="25.15" customHeight="1">
       <c r="A6" s="17"/>
@@ -2105,10 +2094,10 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:5" ht="25.15" customHeight="1">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="74" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="74"/>
+      <c r="B11" s="75"/>
       <c r="C11" s="59"/>
       <c r="D11" s="14" t="s">
         <v>131</v>
@@ -2928,7 +2917,7 @@
         <v>151</v>
       </c>
       <c r="D58" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E58" s="4"/>
       <c r="F58" s="19">
@@ -2936,7 +2925,7 @@
       </c>
       <c r="G58" s="20">
         <f t="shared" si="2"/>
-        <v>264</v>
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="25.15" customHeight="1">
@@ -2950,7 +2939,7 @@
         <v>151</v>
       </c>
       <c r="D59" s="4">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E59" s="4"/>
       <c r="F59" s="19">
@@ -2958,7 +2947,7 @@
       </c>
       <c r="G59" s="20">
         <f t="shared" si="2"/>
-        <v>726</v>
+        <v>924</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="25.15" customHeight="1">
@@ -3853,7 +3842,7 @@
       <c r="B102" s="23"/>
       <c r="C102" s="24"/>
       <c r="D102" s="25"/>
-      <c r="F102" s="85" t="s">
+      <c r="F102" s="73" t="s">
         <v>107</v>
       </c>
       <c r="G102" s="26">
@@ -3866,7 +3855,7 @@
       <c r="B103" s="23"/>
       <c r="C103" s="24"/>
       <c r="D103" s="25"/>
-      <c r="F103" s="85" t="s">
+      <c r="F103" s="73" t="s">
         <v>261</v>
       </c>
       <c r="G103" s="27">
@@ -3879,7 +3868,7 @@
       <c r="B104" s="23"/>
       <c r="C104" s="24"/>
       <c r="D104" s="25"/>
-      <c r="F104" s="85" t="s">
+      <c r="F104" s="73" t="s">
         <v>108</v>
       </c>
       <c r="G104" s="27">
